--- a/Models/Model_5_ambient_t_sens/ModelData.xlsx
+++ b/Models/Model_5_ambient_t_sens/ModelData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="714" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Dir" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Water_S2_BC" sheetId="13" r:id="rId12"/>
     <sheet name="Optimize" sheetId="14" r:id="rId13"/>
     <sheet name="Options" sheetId="15" r:id="rId14"/>
+    <sheet name="Well_Params" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
   <si>
     <t>ROCK</t>
   </si>
@@ -274,21 +275,9 @@
     <t>co2_prod1</t>
   </si>
   <si>
-    <t>monitor_inj1</t>
-  </si>
-  <si>
-    <t>monitor_prod1</t>
-  </si>
-  <si>
     <t>co2_prod2</t>
   </si>
   <si>
-    <t>monitor_prod2</t>
-  </si>
-  <si>
-    <t>monitor_prod3</t>
-  </si>
-  <si>
     <t>co2_prod3</t>
   </si>
   <si>
@@ -356,6 +345,24 @@
   </si>
   <si>
     <t>maxiter</t>
+  </si>
+  <si>
+    <t>min_elev</t>
+  </si>
+  <si>
+    <t>max_elev</t>
+  </si>
+  <si>
+    <t>dz</t>
+  </si>
+  <si>
+    <t>well_diameter</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>inj_temp</t>
   </si>
 </sst>
 </file>
@@ -722,7 +729,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,7 +737,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +767,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +820,7 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -882,7 +889,7 @@
       </c>
       <c r="H4" s="4">
         <f>-L4*1000000000/(365.25*24*3600)</f>
-        <v>-19.780790719999999</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I4" s="3">
         <v>-40</v>
@@ -895,7 +902,7 @@
       </c>
       <c r="L4" s="4">
         <f>SUM(L5:L7)</f>
-        <v>0.62423428122547198</v>
+        <v>0.792339917679864</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -921,7 +928,7 @@
       </c>
       <c r="H5" s="4">
         <f>L5*1000000000/(365.25*24*3600)</f>
-        <v>6.5935869899999995</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -934,18 +941,18 @@
       </c>
       <c r="L5" s="4">
         <f>O5/1000000000*(365.25*24*3600)</f>
-        <v>0.208077780795624</v>
+        <v>0.28487514465935998</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.5935869900000004</v>
+        <v>9.0271486000000003</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>32</v>
@@ -963,7 +970,7 @@
       </c>
       <c r="H6" s="4">
         <f>L6*1000000000/(365.25*24*3600)</f>
-        <v>6.5314241199999996</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -976,18 +983,18 @@
       </c>
       <c r="L6" s="4">
         <f t="shared" ref="L6:L7" si="0">O6/1000000000*(365.25*24*3600)</f>
-        <v>0.20611606980931199</v>
+        <v>0.28575744150743998</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.5314241199999996</v>
+        <v>9.0551069000000002</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>33</v>
@@ -1005,7 +1012,7 @@
       </c>
       <c r="H7" s="4">
         <f>L7*1000000000/(365.25*24*3600)</f>
-        <v>6.6557796099999997</v>
+        <v>7.0254813900000022</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1018,13 +1025,13 @@
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>0.21004043062053601</v>
+        <v>0.22170733151306404</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.6557796099999997</v>
+        <v>7.0254813900000013</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1056,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -1105,7 +1112,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1194,7 +1201,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -1212,7 +1219,7 @@
       </c>
       <c r="H2">
         <f>CO2_S2_BC!H4</f>
-        <v>-19.780790719999999</v>
+        <v>-25.107736890000002</v>
       </c>
       <c r="I2">
         <f>CO2_S2_BC!I4</f>
@@ -1223,12 +1230,12 @@
       </c>
       <c r="L2" s="4">
         <f>CO2_S2_BC!L4</f>
-        <v>0.62423428122547198</v>
+        <v>0.792339917679864</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>31</v>
@@ -1246,7 +1253,7 @@
       </c>
       <c r="H3">
         <f>CO2_S2_BC!H5</f>
-        <v>6.5935869899999995</v>
+        <v>9.0271486000000003</v>
       </c>
       <c r="I3">
         <f>CO2_S2_BC!I5</f>
@@ -1257,12 +1264,12 @@
       </c>
       <c r="L3" s="4">
         <f>CO2_S2_BC!L5</f>
-        <v>0.208077780795624</v>
+        <v>0.28487514465935998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1280,7 +1287,7 @@
       </c>
       <c r="H4">
         <f>CO2_S2_BC!H6</f>
-        <v>6.5314241199999996</v>
+        <v>9.0551068999999984</v>
       </c>
       <c r="I4">
         <f>CO2_S2_BC!I6</f>
@@ -1291,12 +1298,12 @@
       </c>
       <c r="L4" s="4">
         <f>CO2_S2_BC!L6</f>
-        <v>0.20611606980931199</v>
+        <v>0.28575744150743998</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -1314,7 +1321,7 @@
       </c>
       <c r="H5">
         <f>CO2_S2_BC!H7</f>
-        <v>6.6557796099999997</v>
+        <v>7.0254813900000022</v>
       </c>
       <c r="I5">
         <f>CO2_S2_BC!I7</f>
@@ -1325,7 +1332,7 @@
       </c>
       <c r="L5" s="4">
         <f>CO2_S2_BC!L7</f>
-        <v>0.21004043062053601</v>
+        <v>0.22170733151306404</v>
       </c>
     </row>
   </sheetData>
@@ -1350,21 +1357,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1378,7 +1385,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1392,7 +1399,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1429,15 +1436,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" s="6">
         <v>0.5</v>
@@ -1445,10 +1452,81 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5.5000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2628,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <f>B4</f>
@@ -2559,7 +2637,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -2643,7 +2721,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2652,7 +2730,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2737,7 +2815,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>B5</f>
@@ -2746,7 +2824,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2762,7 +2840,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,7 +2850,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2792,13 +2870,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F2" s="3">
         <v>750</v>
@@ -2818,13 +2896,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3">
         <v>750</v>
@@ -2845,13 +2923,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3">
         <v>750</v>
@@ -2871,13 +2949,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3">
         <v>750</v>
@@ -2957,7 +3035,7 @@
         <v>78</v>
       </c>
       <c r="M1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
